--- a/api_set/Описание-API.xlsx
+++ b/api_set/Описание-API.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PUT" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="POST" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,27 +21,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t xml:space="preserve">url: </t>
   </si>
   <si>
+    <t xml:space="preserve">bitrix24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP Method:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">формат данных: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Структура JSON:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+  "uuid": "1A",
+  "name": "Сайфуллин Руслан Рафитович",
+  "address": "Респ Башкортостан, г Стерлитамак, ул Худайбердина, д 224, кв 35",
+  "phone": "+7(987) 2405-525",
+  "owner": 1,
+  "type_production": "Кухонный гарнитур",
+  “total_amount”: 1011700,
+  “type_pay”: “cash”,
+  “nomer_dogovora”: “.9839”,
+  “adres_propiski”: “г Москва, ул Серпуховский Вал, д 5, кв 73”,
+  “oplata_predoplata_rub”: 709700,
+  “naimenov_soputstv_izdeliy”: “Подсветка”,
+  “summa_za_soputstv_uslugi”: 8650,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  “vsego_k_oplate”: 1011700,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  “data_podpisaniya”: 2023-02-03,
+  “srok_ispolneniya_rabot”: 60,
+  “yur_lico”: “ИП Усманов”,
+  “tip_dogovora”: “m_furniture_making”
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">“total_amount”: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговая сумма(только для изделия)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“type_pay”:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип оплаты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“vsego_k_oplate”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итоговая сумма(изделие + сопустсвующие услуги)</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.chiffre.tech/api/v1/froze-create/</t>
   </si>
   <si>
-    <t xml:space="preserve">HTTP Method:</t>
-  </si>
-  <si>
     <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">формат данных: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Структура JSON:</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -60,11 +132,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,6 +157,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -130,17 +209,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -164,55 +255,184 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="224.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="90.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
